--- a/data/trans_orig/Q03B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_R-Estudios-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.18519384774723</v>
+        <v>1.177893336567519</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.22723731056868</v>
+        <v>1.214786329209356</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.528769287002416</v>
+        <v>1.527720888790183</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.684942961290521</v>
+        <v>3.68543560169113</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.472528533815993</v>
+        <v>3.468507211687638</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.545562492366424</v>
+        <v>3.542190696875433</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.602714080947077</v>
+        <v>2.599817982140681</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.545390311147019</v>
+        <v>2.537549538008738</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.716881896170727</v>
+        <v>2.728357256194698</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.425106598255972</v>
+        <v>1.432514310194027</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.430352164382373</v>
+        <v>1.437780614989105</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.76650195887969</v>
+        <v>1.775678218784553</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.961171364091626</v>
+        <v>3.962509876355874</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.727644726302529</v>
+        <v>3.71799273065302</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.832848484249399</v>
+        <v>3.819555861671375</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.815687313007912</v>
+        <v>2.819315871670176</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.736314649485195</v>
+        <v>2.733386385698389</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.942031993927869</v>
+        <v>2.943695385424993</v>
       </c>
     </row>
     <row r="7">
@@ -754,7 +754,7 @@
         <v>1.659391828126481</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.583623416011283</v>
+        <v>3.583623416011282</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>3.586417325918417</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.099630307493346</v>
+        <v>1.100737458215289</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.420075947092803</v>
+        <v>1.427841378843494</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.599252722775615</v>
+        <v>1.599062167671549</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.467105909423907</v>
+        <v>3.46295961656362</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.488288896461908</v>
+        <v>3.4821803772301</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.385263399634094</v>
+        <v>3.385973838688011</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.267596333045233</v>
+        <v>2.262117409144516</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.410541657260927</v>
+        <v>2.413242834203765</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.501559662485192</v>
+        <v>2.496162634232065</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.270105061684204</v>
+        <v>1.275363400047239</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.554913342682664</v>
+        <v>1.566675715786018</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.73332792716064</v>
+        <v>1.73499888204261</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.699478379676743</v>
+        <v>3.701279397887405</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.690744556472868</v>
+        <v>3.700168952382757</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.557409016114831</v>
+        <v>3.553605288863595</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.438338542416559</v>
+        <v>2.429918751062166</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.544786193921933</v>
+        <v>2.548358410233828</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.623041327928882</v>
+        <v>2.628091043974647</v>
       </c>
     </row>
     <row r="10">
@@ -875,7 +875,7 @@
         <v>2.042405536896292</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>2.274763900545243</v>
+        <v>2.274763900545242</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>2.471675089817391</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.30269240886844</v>
+        <v>1.31231111482722</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.462426350408627</v>
+        <v>1.466593588347798</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.771761673656944</v>
+        <v>1.767586773546272</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.570262572406492</v>
+        <v>2.563679563792044</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.842534541737718</v>
+        <v>2.837551542201362</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.917758567011821</v>
+        <v>2.905305576741634</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.931015839833452</v>
+        <v>1.933951254620246</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.167291144580142</v>
+        <v>2.162171470531513</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.367276450959094</v>
+        <v>2.370811608050203</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.602631469661068</v>
+        <v>1.619258518253528</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.719430031346984</v>
+        <v>1.711185364506324</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.002550926622639</v>
+        <v>2.00263797769326</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.886969411293669</v>
+        <v>2.883152465910929</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.177087225157289</v>
+        <v>3.179448399712969</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.258825714796182</v>
+        <v>3.243818252086137</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.168617897057038</v>
+        <v>2.163664920425842</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.400888914536555</v>
+        <v>2.402369850866674</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.585305709160785</v>
+        <v>2.599343419603461</v>
       </c>
     </row>
     <row r="13">
@@ -981,7 +981,7 @@
         <v>3.46469215799108</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>2.4278450180709</v>
+        <v>2.427845018070899</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2.507098188644358</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.199123170181036</v>
+        <v>1.207624784339747</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.401413452771566</v>
+        <v>1.396890023195159</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.638633968957993</v>
+        <v>1.641227342479359</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.46977274063312</v>
+        <v>3.469855463011387</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.438084311417981</v>
+        <v>3.444207198128217</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.39920993194128</v>
+        <v>3.395828990093064</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.370239869253242</v>
+        <v>2.369076772093632</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.4547464223042</v>
+        <v>2.458984220189875</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.567814969220035</v>
+        <v>2.56869041437595</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.322935070874959</v>
+        <v>1.33181556404537</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.508598909034141</v>
+        <v>1.512055719414878</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.742060687018879</v>
+        <v>1.747552608506323</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.639112873449867</v>
+        <v>3.629313610386968</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.598440805912106</v>
+        <v>3.591730758419191</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.535430077082174</v>
+        <v>3.537314094017079</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.489590312510248</v>
+        <v>2.49266156807819</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.555303311615181</v>
+        <v>2.563579714944984</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.664060031770637</v>
+        <v>2.662265245998429</v>
       </c>
     </row>
     <row r="16">
